--- a/pool.xlsx
+++ b/pool.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\houke\Desktop\HY_index\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33680" windowHeight="18100"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33675" windowHeight="16440"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,12 +12,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$129</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="146">
   <si>
     <t>TICKER</t>
   </si>
@@ -460,10 +455,6 @@
   </si>
   <si>
     <t>IG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Property</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -793,7 +784,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -805,17 +796,17 @@
   <dimension ref="A1:D129"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A129"/>
+      <selection activeCell="K92" sqref="K92"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="8.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -829,7 +820,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -843,7 +834,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -857,35 +848,35 @@
         <v>133</v>
       </c>
     </row>
-    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C4" t="e">
-        <v>#DIV/0!</v>
+        <v>116</v>
+      </c>
+      <c r="B4">
+        <v>19</v>
+      </c>
+      <c r="C4">
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C5" t="e">
-        <v>#DIV/0!</v>
+        <v>56</v>
+      </c>
+      <c r="B5">
+        <v>20</v>
+      </c>
+      <c r="C5">
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -899,7 +890,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -913,9 +904,9 @@
         <v>133</v>
       </c>
     </row>
-    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="B8">
         <v>20</v>
@@ -927,7 +918,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -941,9 +932,9 @@
         <v>133</v>
       </c>
     </row>
-    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="B10">
         <v>20</v>
@@ -955,9 +946,9 @@
         <v>135</v>
       </c>
     </row>
-    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="B11">
         <v>20</v>
@@ -969,7 +960,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -983,7 +974,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -997,21 +988,21 @@
         <v>133</v>
       </c>
     </row>
-    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>116</v>
-      </c>
-      <c r="B14">
-        <v>19</v>
-      </c>
-      <c r="C14">
-        <v>19</v>
+        <v>31</v>
+      </c>
+      <c r="B14" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C14" t="e">
+        <v>#DIV/0!</v>
       </c>
       <c r="D14" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -1025,7 +1016,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -1039,7 +1030,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -1053,7 +1044,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -1067,21 +1058,21 @@
         <v>133</v>
       </c>
     </row>
-    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>125</v>
-      </c>
-      <c r="B19">
-        <v>20</v>
-      </c>
-      <c r="C19">
-        <v>20</v>
+        <v>63</v>
+      </c>
+      <c r="B19" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C19" t="e">
+        <v>#DIV/0!</v>
       </c>
       <c r="D19" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -1095,7 +1086,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -1109,7 +1100,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -1123,21 +1114,21 @@
         <v>133</v>
       </c>
     </row>
-    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>4</v>
-      </c>
-      <c r="B23">
-        <v>19</v>
-      </c>
-      <c r="C23">
-        <v>18</v>
+        <v>67</v>
+      </c>
+      <c r="B23" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C23" t="e">
+        <v>#DIV/0!</v>
       </c>
       <c r="D23" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -1151,7 +1142,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -1165,7 +1156,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -1179,7 +1170,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>29</v>
       </c>
@@ -1193,7 +1184,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>30</v>
       </c>
@@ -1207,9 +1198,9 @@
         <v>136</v>
       </c>
     </row>
-    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="B29" t="e">
         <v>#DIV/0!</v>
@@ -1218,24 +1209,24 @@
         <v>#DIV/0!</v>
       </c>
       <c r="D29" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>10</v>
-      </c>
-      <c r="B30">
-        <v>18</v>
-      </c>
-      <c r="C30">
-        <v>16</v>
+        <v>95</v>
+      </c>
+      <c r="B30" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C30" t="e">
+        <v>#DIV/0!</v>
       </c>
       <c r="D30" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>33</v>
       </c>
@@ -1249,7 +1240,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>34</v>
       </c>
@@ -1263,7 +1254,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>35</v>
       </c>
@@ -1277,7 +1268,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>36</v>
       </c>
@@ -1291,7 +1282,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>37</v>
       </c>
@@ -1305,23 +1296,23 @@
         <v>139</v>
       </c>
     </row>
-    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>13</v>
-      </c>
-      <c r="B36">
-        <v>18</v>
-      </c>
-      <c r="C36">
-        <v>17</v>
+        <v>97</v>
+      </c>
+      <c r="B36" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C36" t="e">
+        <v>#DIV/0!</v>
       </c>
       <c r="D36" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>39</v>
+        <v>126</v>
       </c>
       <c r="B37" t="e">
         <v>#DIV/0!</v>
@@ -1330,24 +1321,24 @@
         <v>#DIV/0!</v>
       </c>
       <c r="D37" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>40</v>
-      </c>
-      <c r="B38" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C38" t="e">
-        <v>#DIV/0!</v>
+        <v>69</v>
+      </c>
+      <c r="B38">
+        <v>15</v>
+      </c>
+      <c r="C38">
+        <v>15</v>
       </c>
       <c r="D38" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>41</v>
       </c>
@@ -1361,63 +1352,63 @@
         <v>133</v>
       </c>
     </row>
-    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>42</v>
-      </c>
-      <c r="B40" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C40" t="e">
-        <v>#DIV/0!</v>
+        <v>102</v>
+      </c>
+      <c r="B40">
+        <v>15</v>
+      </c>
+      <c r="C40">
+        <v>15</v>
       </c>
       <c r="D40" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>16</v>
+        <v>115</v>
       </c>
       <c r="B41">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C41">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D41" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
+        <v>129</v>
+      </c>
+      <c r="B42">
+        <v>15</v>
+      </c>
+      <c r="C42">
+        <v>15</v>
+      </c>
+      <c r="D42" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A43" t="s">
         <v>21</v>
       </c>
-      <c r="B42">
-        <v>16</v>
-      </c>
-      <c r="C42">
-        <v>16</v>
-      </c>
-      <c r="D42" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>25</v>
-      </c>
       <c r="B43">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C43">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D43" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
         <v>46</v>
       </c>
@@ -1431,7 +1422,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
         <v>47</v>
       </c>
@@ -1445,21 +1436,21 @@
         <v>133</v>
       </c>
     </row>
-    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="B46">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C46">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D46" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
         <v>49</v>
       </c>
@@ -1473,7 +1464,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
         <v>50</v>
       </c>
@@ -1487,12 +1478,12 @@
         <v>133</v>
       </c>
     </row>
-    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="B49">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C49">
         <v>16</v>
@@ -1501,9 +1492,9 @@
         <v>132</v>
       </c>
     </row>
-    <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="B50">
         <v>16</v>
@@ -1515,21 +1506,21 @@
         <v>132</v>
       </c>
     </row>
-    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="B51">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C51">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D51" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
         <v>54</v>
       </c>
@@ -1543,49 +1534,49 @@
         <v>133</v>
       </c>
     </row>
-    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="B53">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C53">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D53" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
-        <v>48</v>
+        <v>83</v>
       </c>
       <c r="B54">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C54">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D54" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
-        <v>51</v>
+        <v>85</v>
       </c>
       <c r="B55">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C55">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D55" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
         <v>58</v>
       </c>
@@ -1599,7 +1590,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
         <v>59</v>
       </c>
@@ -1613,7 +1604,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
         <v>60</v>
       </c>
@@ -1627,49 +1618,49 @@
         <v>133</v>
       </c>
     </row>
-    <row r="59" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
-        <v>61</v>
-      </c>
-      <c r="B59" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C59" t="e">
-        <v>#DIV/0!</v>
+        <v>86</v>
+      </c>
+      <c r="B59">
+        <v>16</v>
+      </c>
+      <c r="C59">
+        <v>16</v>
       </c>
       <c r="D59" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
-        <v>52</v>
+        <v>114</v>
       </c>
       <c r="B60">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C60">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D60" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="61" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
-        <v>63</v>
-      </c>
-      <c r="B61" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C61" t="e">
-        <v>#DIV/0!</v>
+        <v>38</v>
+      </c>
+      <c r="B61">
+        <v>17</v>
+      </c>
+      <c r="C61">
+        <v>16</v>
       </c>
       <c r="D61" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
         <v>64</v>
       </c>
@@ -1683,7 +1674,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
         <v>65</v>
       </c>
@@ -1697,35 +1688,35 @@
         <v>136</v>
       </c>
     </row>
-    <row r="64" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="B64">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C64">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D64" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="65" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
-        <v>67</v>
-      </c>
-      <c r="B65" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C65" t="e">
-        <v>#DIV/0!</v>
+        <v>105</v>
+      </c>
+      <c r="B65">
+        <v>17</v>
+      </c>
+      <c r="C65">
+        <v>16</v>
       </c>
       <c r="D65" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
         <v>68</v>
       </c>
@@ -1739,12 +1730,12 @@
         <v>133</v>
       </c>
     </row>
-    <row r="67" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="B67">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C67">
         <v>16</v>
@@ -1753,7 +1744,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="68" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
         <v>70</v>
       </c>
@@ -1767,35 +1758,35 @@
         <v>133</v>
       </c>
     </row>
-    <row r="69" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
-        <v>71</v>
-      </c>
-      <c r="B69" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C69" t="e">
-        <v>#DIV/0!</v>
+        <v>13</v>
+      </c>
+      <c r="B69">
+        <v>18</v>
+      </c>
+      <c r="C69">
+        <v>17</v>
       </c>
       <c r="D69" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
-        <v>72</v>
-      </c>
-      <c r="B70" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C70" t="e">
-        <v>#DIV/0!</v>
+        <v>48</v>
+      </c>
+      <c r="B70">
+        <v>18</v>
+      </c>
+      <c r="C70">
+        <v>18</v>
       </c>
       <c r="D70" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="71" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
         <v>73</v>
       </c>
@@ -1809,21 +1800,21 @@
         <v>133</v>
       </c>
     </row>
-    <row r="72" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B72">
         <v>18</v>
       </c>
       <c r="C72">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D72" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="73" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
         <v>75</v>
       </c>
@@ -1834,10 +1825,10 @@
         <v>#DIV/0!</v>
       </c>
       <c r="D73" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
         <v>76</v>
       </c>
@@ -1851,35 +1842,35 @@
         <v>133</v>
       </c>
     </row>
-    <row r="75" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="B75">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C75">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D75" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="76" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="B76">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C76">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D76" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="77" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
         <v>79</v>
       </c>
@@ -1893,7 +1884,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="78" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
         <v>74</v>
       </c>
@@ -1907,7 +1898,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
         <v>81</v>
       </c>
@@ -1921,7 +1912,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
         <v>82</v>
       </c>
@@ -1935,7 +1926,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="81" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
         <v>77</v>
       </c>
@@ -1949,7 +1940,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
         <v>84</v>
       </c>
@@ -1963,49 +1954,49 @@
         <v>136</v>
       </c>
     </row>
-    <row r="83" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="B83">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C83">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D83" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="84" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="B84">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C84">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D84" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="85" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
-        <v>83</v>
+        <v>123</v>
       </c>
       <c r="B85">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C85">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D85" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="86" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
         <v>88</v>
       </c>
@@ -2019,7 +2010,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="87" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
         <v>89</v>
       </c>
@@ -2033,21 +2024,21 @@
         <v>133</v>
       </c>
     </row>
-    <row r="88" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
-        <v>85</v>
+        <v>4</v>
       </c>
       <c r="B88">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C88">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D88" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="89" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
         <v>91</v>
       </c>
@@ -2061,91 +2052,91 @@
         <v>133</v>
       </c>
     </row>
-    <row r="90" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
-        <v>86</v>
+        <v>25</v>
       </c>
       <c r="B90">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C90">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D90" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="91" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
-        <v>93</v>
-      </c>
-      <c r="B91" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C91" t="e">
-        <v>#DIV/0!</v>
+        <v>44</v>
+      </c>
+      <c r="B91">
+        <v>19</v>
+      </c>
+      <c r="C91">
+        <v>19</v>
       </c>
       <c r="D91" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
-        <v>94</v>
-      </c>
-      <c r="B92" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C92" t="e">
-        <v>#DIV/0!</v>
+        <v>45</v>
+      </c>
+      <c r="B92">
+        <v>19</v>
+      </c>
+      <c r="C92">
+        <v>18</v>
       </c>
       <c r="D92" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A93" t="s">
-        <v>95</v>
-      </c>
-      <c r="B93" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C93" t="e">
-        <v>#DIV/0!</v>
+        <v>52</v>
+      </c>
+      <c r="B93">
+        <v>19</v>
+      </c>
+      <c r="C93">
+        <v>18</v>
       </c>
       <c r="D93" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A94" t="s">
-        <v>96</v>
-      </c>
-      <c r="B94" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C94" t="e">
-        <v>#DIV/0!</v>
+        <v>16</v>
+      </c>
+      <c r="B94">
+        <v>20</v>
+      </c>
+      <c r="C94">
+        <v>20</v>
       </c>
       <c r="D94" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="95" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A95" t="s">
-        <v>97</v>
-      </c>
-      <c r="B95" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C95" t="e">
-        <v>#DIV/0!</v>
+        <v>32</v>
+      </c>
+      <c r="B95">
+        <v>20</v>
+      </c>
+      <c r="C95">
+        <v>17</v>
       </c>
       <c r="D95" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A96" t="s">
         <v>98</v>
       </c>
@@ -2159,7 +2150,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A97" t="s">
         <v>99</v>
       </c>
@@ -2173,21 +2164,21 @@
         <v>142</v>
       </c>
     </row>
-    <row r="98" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A98" t="s">
-        <v>87</v>
-      </c>
-      <c r="B98">
-        <v>17</v>
-      </c>
-      <c r="C98">
-        <v>17</v>
+        <v>6</v>
+      </c>
+      <c r="B98" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C98" t="e">
+        <v>#DIV/0!</v>
       </c>
       <c r="D98" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="99" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A99" t="s">
         <v>101</v>
       </c>
@@ -2201,21 +2192,21 @@
         <v>133</v>
       </c>
     </row>
-    <row r="100" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A100" t="s">
-        <v>100</v>
-      </c>
-      <c r="B100">
-        <v>18</v>
-      </c>
-      <c r="C100">
-        <v>16</v>
+        <v>39</v>
+      </c>
+      <c r="B100" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C100" t="e">
+        <v>#DIV/0!</v>
       </c>
       <c r="D100" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="101" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A101" t="s">
         <v>103</v>
       </c>
@@ -2229,9 +2220,9 @@
         <v>133</v>
       </c>
     </row>
-    <row r="102" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A102" t="s">
-        <v>104</v>
+        <v>72</v>
       </c>
       <c r="B102" t="e">
         <v>#DIV/0!</v>
@@ -2240,94 +2231,94 @@
         <v>#DIV/0!</v>
       </c>
       <c r="D102" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A103" t="s">
-        <v>102</v>
-      </c>
-      <c r="B103">
+        <v>96</v>
+      </c>
+      <c r="B103" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C103" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D103" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A104" t="s">
+        <v>117</v>
+      </c>
+      <c r="B104" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C104" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D104" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A105" t="s">
+        <v>130</v>
+      </c>
+      <c r="B105">
+        <v>16</v>
+      </c>
+      <c r="C105">
         <v>15</v>
-      </c>
-      <c r="C103">
-        <v>15</v>
-      </c>
-      <c r="D103" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>105</v>
-      </c>
-      <c r="B104">
-        <v>17</v>
-      </c>
-      <c r="C104">
-        <v>16</v>
-      </c>
-      <c r="D104" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>107</v>
-      </c>
-      <c r="B105" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C105" t="e">
-        <v>#DIV/0!</v>
       </c>
       <c r="D105" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="106" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A106" t="s">
-        <v>108</v>
-      </c>
-      <c r="B106" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C106" t="e">
-        <v>#DIV/0!</v>
+        <v>66</v>
+      </c>
+      <c r="B106">
+        <v>17</v>
+      </c>
+      <c r="C106">
+        <v>16</v>
       </c>
       <c r="D106" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="107" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A107" t="s">
-        <v>109</v>
-      </c>
-      <c r="B107" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C107" t="e">
-        <v>#DIV/0!</v>
+        <v>90</v>
+      </c>
+      <c r="B107">
+        <v>19</v>
+      </c>
+      <c r="C107">
+        <v>19</v>
       </c>
       <c r="D107" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="108" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A108" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="B108">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C108">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D108" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A109" t="s">
         <v>111</v>
       </c>
@@ -2341,7 +2332,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="110" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A110" t="s">
         <v>112</v>
       </c>
@@ -2355,65 +2346,65 @@
         <v>140</v>
       </c>
     </row>
-    <row r="111" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A111" t="s">
-        <v>113</v>
-      </c>
-      <c r="B111" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C111" t="e">
-        <v>#DIV/0!</v>
+        <v>124</v>
+      </c>
+      <c r="B111">
+        <v>19</v>
+      </c>
+      <c r="C111">
+        <v>18</v>
       </c>
       <c r="D111" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="112" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A112" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="B112">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C112">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D112" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A113" t="s">
-        <v>115</v>
-      </c>
-      <c r="B113">
-        <v>15</v>
-      </c>
-      <c r="C113">
-        <v>15</v>
+        <v>7</v>
+      </c>
+      <c r="B113" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C113" t="e">
+        <v>#DIV/0!</v>
       </c>
       <c r="D113" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A114" t="s">
-        <v>123</v>
-      </c>
-      <c r="B114">
-        <v>18</v>
-      </c>
-      <c r="C114">
-        <v>17</v>
+        <v>40</v>
+      </c>
+      <c r="B114" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C114" t="e">
+        <v>#DIV/0!</v>
       </c>
       <c r="D114" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A115" t="s">
-        <v>117</v>
+        <v>42</v>
       </c>
       <c r="B115" t="e">
         <v>#DIV/0!</v>
@@ -2422,10 +2413,10 @@
         <v>#DIV/0!</v>
       </c>
       <c r="D115" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A116" t="s">
         <v>118</v>
       </c>
@@ -2439,21 +2430,21 @@
         <v>133</v>
       </c>
     </row>
-    <row r="117" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A117" t="s">
-        <v>129</v>
-      </c>
-      <c r="B117">
-        <v>15</v>
-      </c>
-      <c r="C117">
-        <v>15</v>
+        <v>61</v>
+      </c>
+      <c r="B117" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C117" t="e">
+        <v>#DIV/0!</v>
       </c>
       <c r="D117" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A118" t="s">
         <v>120</v>
       </c>
@@ -2467,7 +2458,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="119" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A119" t="s">
         <v>121</v>
       </c>
@@ -2481,7 +2472,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A120" t="s">
         <v>122</v>
       </c>
@@ -2492,54 +2483,54 @@
         <v>#DIV/0!</v>
       </c>
       <c r="D120" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A121" t="s">
-        <v>66</v>
-      </c>
-      <c r="B121">
-        <v>17</v>
-      </c>
-      <c r="C121">
-        <v>16</v>
+        <v>93</v>
+      </c>
+      <c r="B121" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C121" t="e">
+        <v>#DIV/0!</v>
       </c>
       <c r="D121" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="122" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A122" t="s">
-        <v>90</v>
-      </c>
-      <c r="B122">
-        <v>19</v>
-      </c>
-      <c r="C122">
-        <v>19</v>
+        <v>94</v>
+      </c>
+      <c r="B122" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C122" t="e">
+        <v>#DIV/0!</v>
       </c>
       <c r="D122" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="123" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A123" t="s">
-        <v>119</v>
-      </c>
-      <c r="B123">
-        <v>19</v>
-      </c>
-      <c r="C123">
-        <v>19</v>
+        <v>104</v>
+      </c>
+      <c r="B123" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C123" t="e">
+        <v>#DIV/0!</v>
       </c>
       <c r="D123" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="124" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A124" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="B124" t="e">
         <v>#DIV/0!</v>
@@ -2548,24 +2539,24 @@
         <v>#DIV/0!</v>
       </c>
       <c r="D124" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A125" t="s">
-        <v>124</v>
-      </c>
-      <c r="B125">
-        <v>19</v>
-      </c>
-      <c r="C125">
-        <v>18</v>
+        <v>108</v>
+      </c>
+      <c r="B125" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C125" t="e">
+        <v>#DIV/0!</v>
       </c>
       <c r="D125" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="126" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A126" t="s">
         <v>128</v>
       </c>
@@ -2579,35 +2570,35 @@
         <v>133</v>
       </c>
     </row>
-    <row r="127" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A127" t="s">
-        <v>127</v>
-      </c>
-      <c r="B127">
-        <v>20</v>
-      </c>
-      <c r="C127">
-        <v>19</v>
+        <v>109</v>
+      </c>
+      <c r="B127" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C127" t="e">
+        <v>#DIV/0!</v>
       </c>
       <c r="D127" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A128" t="s">
-        <v>130</v>
-      </c>
-      <c r="B128">
-        <v>16</v>
-      </c>
-      <c r="C128">
-        <v>15</v>
+        <v>113</v>
+      </c>
+      <c r="B128" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C128" t="e">
+        <v>#DIV/0!</v>
       </c>
       <c r="D128" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="129" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A129" t="s">
         <v>131</v>
       </c>
@@ -2625,14 +2616,17 @@
   <autoFilter ref="A1:D129">
     <filterColumn colId="3">
       <filters>
-        <filter val="IG"/>
+        <filter val="LGFV"/>
+        <filter val="Property"/>
+        <filter val="SOE"/>
       </filters>
     </filterColumn>
-    <sortState ref="A2:D128">
+    <sortState ref="A2:D129">
       <sortCondition ref="D1:D129"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/pool.xlsx
+++ b/pool.xlsx
@@ -19,12 +19,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="144">
   <si>
-    <t>TICKER</t>
-  </si>
-  <si>
-    <t>SECTOR</t>
-  </si>
-  <si>
     <t>AGILE</t>
   </si>
   <si>
@@ -457,6 +451,14 @@
   </si>
   <si>
     <t>IG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ticker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sector</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -778,7 +780,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -789,7 +791,7 @@
   <dimension ref="A1:B129"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -799,1034 +801,1034 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>142</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B11" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B19" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B23" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B29" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B30" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B36" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B37" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B38" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B40" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B41" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B42" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B43" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B46" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B49" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B50" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B51" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B53" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B54" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B55" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B59" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B60" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B61" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B64" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B65" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B67" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B69" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B70" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B72" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B75" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B76" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B78" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B81" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B83" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B84" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B85" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B88" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B90" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B91" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B92" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A93" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B93" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A94" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B94" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A95" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B95" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A96" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A97" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A98" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B98" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A99" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A100" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B100" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A101" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A102" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B102" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A103" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B103" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A104" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B104" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A105" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B105" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A106" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B106" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A107" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B107" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A108" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B108" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A109" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A110" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A111" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B111" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A112" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B112" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A113" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B113" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A114" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B114" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A115" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B115" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A116" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A117" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B117" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A118" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A119" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A120" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A121" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B121" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A122" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B122" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A123" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B123" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A124" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B124" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A125" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B125" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A126" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A127" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B127" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A128" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B128" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A129" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
